--- a/Плата/Arduino DUE shield/PriceCalc.xlsx
+++ b/Плата/Arduino DUE shield/PriceCalc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t xml:space="preserve">Board Qty</t>
   </si>
@@ -28,13 +28,16 @@
     <t xml:space="preserve">Cost, $</t>
   </si>
   <si>
-    <t xml:space="preserve">PCB manufcturing</t>
+    <t xml:space="preserve">PCB manufacturing</t>
   </si>
   <si>
     <t xml:space="preserve">LCSC parts</t>
   </si>
   <si>
     <t xml:space="preserve">Aliexpress parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliexpress parts (W5500)</t>
   </si>
   <si>
     <t xml:space="preserve">пайка разъемов</t>
@@ -152,15 +155,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -196,31 +199,53 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="C6" s="1" t="n">
-        <f aca="false">SUM(C2:C5)</f>
-        <v>455</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <f aca="false">C6*75</f>
-        <v>34125</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="1" t="n">
+        <f aca="false">SUM(C2:C7)</f>
+        <v>520</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">C8*75</f>
+        <v>39000</v>
       </c>
     </row>
   </sheetData>

--- a/Плата/Arduino DUE shield/PriceCalc.xlsx
+++ b/Плата/Arduino DUE shield/PriceCalc.xlsx
@@ -155,13 +155,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.52"/>
@@ -237,15 +237,18 @@
       <c r="B7" s="1" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1" t="n">
+      <c r="C7" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="1" t="n">
         <f aca="false">SUM(C2:C7)</f>
-        <v>520</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <f aca="false">C8*75</f>
-        <v>39000</v>
+        <v>700</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">C11*75</f>
+        <v>52500</v>
       </c>
     </row>
   </sheetData>
